--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_0_5.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_0_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1274597.015773428</v>
+        <v>-1281607.744889423</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516699</v>
+        <v>2280223.653892729</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791243</v>
+        <v>419463.0933791247</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>146.3705478950373</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
         <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>55.91316605351106</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13.99401015844392</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
         <v>149.1476881355087</v>
@@ -756,7 +756,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -792,10 +792,10 @@
         <v>175.2139736830806</v>
       </c>
       <c r="U3" t="n">
-        <v>207.9625118881446</v>
+        <v>146.4474340248894</v>
       </c>
       <c r="V3" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>227.816073408046</v>
@@ -817,16 +817,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>5.391229173511973</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>135.8559357406208</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
         <v>389.2437464820987</v>
@@ -902,7 +902,7 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
         <v>12.725494085322</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>34.50474288677029</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>221.2655964161775</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>204.4223298251027</v>
       </c>
     </row>
     <row r="6">
@@ -1032,13 +1032,13 @@
         <v>207.9625118881446</v>
       </c>
       <c r="V6" t="n">
-        <v>35.13685922632835</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W6" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>187.4140068734885</v>
+        <v>133.4004008056356</v>
       </c>
       <c r="Y6" t="n">
         <v>177.5210747552478</v>
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>96.99013667171923</v>
       </c>
       <c r="F7" t="n">
-        <v>11.61260049965491</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>381.5867174954989</v>
@@ -1148,7 +1148,7 @@
         <v>9.031127956876844</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
         <v>221.2655964161775</v>
@@ -1190,16 +1190,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>310.7722767367017</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>160.9667569927119</v>
       </c>
     </row>
     <row r="9">
@@ -1339,10 +1339,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U10" t="n">
         <v>282.5844038405181</v>
@@ -1351,7 +1351,7 @@
         <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>145.7406737689587</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         <v>310.508405100767</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>327.479377239889</v>
       </c>
       <c r="F11" t="n">
         <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
-        <v>337.9528155621449</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372789</v>
+        <v>65.87543334372791</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362801</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>38.1661261323475</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>267.6074288087849</v>
       </c>
       <c r="W11" t="n">
         <v>296.2107322866635</v>
@@ -1436,7 +1436,7 @@
         <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
-        <v>321.4474895938729</v>
+        <v>196.2497323533186</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096563</v>
+        <v>112.2776261096564</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993875</v>
+        <v>97.42475435993876</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177847</v>
+        <v>82.99846957177849</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465758</v>
+        <v>82.9249116246576</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>95.493200966817</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338903</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>60.68516871456097</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>51.58366707901689</v>
       </c>
       <c r="S13" t="n">
-        <v>129.7096105845442</v>
+        <v>103.8685263481662</v>
       </c>
       <c r="T13" t="n">
         <v>162.2835489187163</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>211.5060914457862</v>
       </c>
       <c r="V13" t="n">
-        <v>192.2412393326521</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
-        <v>160.6612066001148</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>107.4817730804381</v>
+        <v>149.8026281767912</v>
       </c>
     </row>
     <row r="14">
@@ -1610,22 +1610,22 @@
         <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E14" t="n">
-        <v>327.4793772398889</v>
+        <v>327.479377239889</v>
       </c>
       <c r="F14" t="n">
         <v>341.6471816905901</v>
       </c>
       <c r="G14" t="n">
-        <v>337.9528155621449</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344423</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372789</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362801</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>150.1872840214456</v>
       </c>
       <c r="U14" t="n">
-        <v>167.2186022584437</v>
+        <v>182.1168898750155</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>267.6074288087849</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>154.3481420278194</v>
       </c>
       <c r="X14" t="n">
         <v>314.4797666215418</v>
       </c>
       <c r="Y14" t="n">
-        <v>321.4474895938729</v>
+        <v>321.447489593873</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096563</v>
+        <v>112.2776261096564</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177847</v>
+        <v>82.99846957177849</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465758</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442485</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681699</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338903</v>
+        <v>82.84545313338904</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456096</v>
+        <v>60.68516871456097</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>51.58366707901689</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>86.97947392790921</v>
+        <v>162.2835489187163</v>
       </c>
       <c r="U16" t="n">
-        <v>211.5060914457861</v>
+        <v>155.4695856792096</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W16" t="n">
         <v>209.4187856534022</v>
@@ -1831,7 +1831,7 @@
         <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767911</v>
+        <v>149.8026281767912</v>
       </c>
     </row>
     <row r="17">
@@ -1841,19 +1841,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C17" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665142</v>
       </c>
       <c r="D17" t="n">
         <v>251.2267481799145</v>
       </c>
       <c r="E17" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F17" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697375</v>
       </c>
       <c r="G17" t="n">
         <v>278.6711586412924</v>
@@ -1862,7 +1862,7 @@
         <v>190.4822506135898</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875351</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277547</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059302</v>
       </c>
       <c r="U17" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V17" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W17" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658109</v>
       </c>
       <c r="X17" t="n">
         <v>255.1981097006893</v>
       </c>
       <c r="Y17" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880385</v>
+        <v>52.9959691888038</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908626</v>
+        <v>38.1430974390862</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092593</v>
       </c>
       <c r="E19" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380504</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357237</v>
+        <v>25.39270612357231</v>
       </c>
       <c r="G19" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596444</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253649</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708418</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,16 +2050,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369165</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978637</v>
       </c>
       <c r="U19" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V19" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117995</v>
       </c>
       <c r="W19" t="n">
         <v>150.1371287325497</v>
@@ -2068,7 +2068,7 @@
         <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593866</v>
+        <v>90.5209712559386</v>
       </c>
     </row>
     <row r="20">
@@ -2132,7 +2132,7 @@
         <v>34.48845019277553</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059378</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.153340954212</v>
+        <v>283.7098784815731</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820278</v>
+        <v>276.4638267093889</v>
       </c>
       <c r="D32" t="n">
-        <v>275.250260195428</v>
+        <v>268.8067977227892</v>
       </c>
       <c r="E32" t="n">
-        <v>292.22123233455</v>
+        <v>285.7777698619111</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852511</v>
+        <v>299.9455743126122</v>
       </c>
       <c r="G32" t="n">
-        <v>302.694670656806</v>
+        <v>296.2512081841671</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291033</v>
+        <v>208.0623001564645</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838891</v>
+        <v>24.17382596575004</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828903</v>
+        <v>52.06849973565016</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161066</v>
+        <v>108.4856766434677</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696765</v>
+        <v>140.4152824970376</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034459</v>
+        <v>225.905821430807</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813245</v>
+        <v>254.5091249086856</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162028</v>
+        <v>272.7781592435639</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.189344688534</v>
+        <v>279.7458822158951</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431736</v>
+        <v>70.57601873167849</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459977</v>
+        <v>55.72314698196089</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643949</v>
+        <v>41.29686219380062</v>
       </c>
       <c r="E34" t="n">
-        <v>47.6667667193186</v>
+        <v>41.22330424667973</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908587</v>
+        <v>42.972755666447</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147801</v>
+        <v>53.79159358883913</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822805005</v>
+        <v>41.14384575541118</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922198</v>
+        <v>18.98356133658311</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.3255221736779</v>
+        <v>9.882059701039026</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920521</v>
+        <v>88.00800320656634</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133773</v>
+        <v>120.5819415407384</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404472</v>
+        <v>169.8044840678083</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273131</v>
+        <v>150.5396319546742</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480633</v>
+        <v>167.7171782754244</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947758</v>
+        <v>118.9595992221369</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714522</v>
+        <v>108.1010207988133</v>
       </c>
     </row>
     <row r="35">
@@ -3263,13 +3263,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C35" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D35" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E35" t="n">
         <v>268.1977203190365</v>
@@ -3281,10 +3281,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F37" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T37" t="n">
         <v>103.0018919978638</v>
@@ -3484,13 +3484,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X37" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="38">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E38" t="n">
         <v>268.1977203190365</v>
@@ -3518,10 +3518,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135901</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F40" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T40" t="n">
         <v>103.0018919978638</v>
@@ -3721,13 +3721,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X40" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C41" t="n">
         <v>258.8837771665143</v>
@@ -3746,7 +3746,7 @@
         <v>251.2267481799145</v>
       </c>
       <c r="E41" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F41" t="n">
         <v>282.3655247697376</v>
@@ -3758,7 +3758,7 @@
         <v>190.4822506135898</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875379</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,16 +3788,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.4884501927755</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059305</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U41" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V41" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W41" t="n">
         <v>236.929075365811</v>
@@ -3806,7 +3806,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y41" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880383</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908623</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092596</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380507</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F43" t="n">
-        <v>25.39270612357234</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596447</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H43" t="n">
-        <v>23.56379621253652</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708446</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,13 +3946,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369168</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T43" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U43" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V43" t="n">
         <v>132.9595824117996</v>
@@ -3964,7 +3964,7 @@
         <v>101.3795496792623</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593863</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="44">
@@ -3974,19 +3974,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C44" t="n">
-        <v>258.8837771665142</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D44" t="n">
         <v>251.2267481799145</v>
       </c>
       <c r="E44" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F44" t="n">
-        <v>282.3655247697375</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G44" t="n">
         <v>278.6711586412924</v>
@@ -3995,7 +3995,7 @@
         <v>190.4822506135898</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875351</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277547</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059302</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U44" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V44" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W44" t="n">
-        <v>236.9290753658109</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X44" t="n">
         <v>255.1981097006893</v>
       </c>
       <c r="Y44" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.9959691888038</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C46" t="n">
-        <v>38.1430974390862</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092593</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380504</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F46" t="n">
-        <v>25.39270612357231</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596444</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H46" t="n">
-        <v>23.56379621253649</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708418</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,16 +4183,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369165</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0018919978637</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U46" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V46" t="n">
-        <v>132.9595824117995</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W46" t="n">
         <v>150.1371287325497</v>
@@ -4201,7 +4201,7 @@
         <v>101.3795496792623</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.5209712559386</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1061.182379698158</v>
+        <v>1194.186612014918</v>
       </c>
       <c r="C2" t="n">
-        <v>1061.182379698158</v>
+        <v>1194.186612014918</v>
       </c>
       <c r="D2" t="n">
-        <v>675.741250914826</v>
+        <v>1194.186612014918</v>
       </c>
       <c r="E2" t="n">
-        <v>527.8922126370105</v>
+        <v>791.6030871314629</v>
       </c>
       <c r="F2" t="n">
-        <v>515.0381782073923</v>
+        <v>778.7490527018447</v>
       </c>
       <c r="G2" t="n">
-        <v>505.9158267357996</v>
+        <v>365.5862971898479</v>
       </c>
       <c r="H2" t="n">
-        <v>181.8327763022902</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="J2" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="K2" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="L2" t="n">
-        <v>536.8159511132839</v>
+        <v>534.8235384748673</v>
       </c>
       <c r="M2" t="n">
-        <v>673.8990329354884</v>
+        <v>1048.426217084556</v>
       </c>
       <c r="N2" t="n">
-        <v>1201.71031657295</v>
+        <v>1562.028895694245</v>
       </c>
       <c r="O2" t="n">
-        <v>1641.749917465279</v>
+        <v>2002.068496586574</v>
       </c>
       <c r="P2" t="n">
-        <v>1989.937409596801</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="R2" t="n">
-        <v>2174.782969737749</v>
+        <v>2037.169424102447</v>
       </c>
       <c r="S2" t="n">
-        <v>2174.782969737749</v>
+        <v>1870.655869043498</v>
       </c>
       <c r="T2" t="n">
-        <v>2174.782969737749</v>
+        <v>1647.155266602914</v>
       </c>
       <c r="U2" t="n">
-        <v>2174.782969737749</v>
+        <v>1590.677321094317</v>
       </c>
       <c r="V2" t="n">
-        <v>1832.676160441268</v>
+        <v>1590.677321094317</v>
       </c>
       <c r="W2" t="n">
-        <v>1461.677125409555</v>
+        <v>1590.677321094317</v>
       </c>
       <c r="X2" t="n">
-        <v>1461.677125409555</v>
+        <v>1590.677321094317</v>
       </c>
       <c r="Y2" t="n">
-        <v>1461.677125409555</v>
+        <v>1194.186612014918</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>793.4743885466976</v>
+        <v>840.8692298963695</v>
       </c>
       <c r="C3" t="n">
-        <v>642.8201581067898</v>
+        <v>690.2149994564617</v>
       </c>
       <c r="D3" t="n">
-        <v>512.7311907282701</v>
+        <v>560.126032077942</v>
       </c>
       <c r="E3" t="n">
-        <v>376.2846998391578</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F3" t="n">
-        <v>251.8528937222896</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G3" t="n">
-        <v>131.793075794154</v>
+        <v>179.187917143826</v>
       </c>
       <c r="H3" t="n">
-        <v>43.49565939475499</v>
+        <v>90.89050074442692</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="J3" t="n">
-        <v>156.6106416144824</v>
+        <v>154.6182289760659</v>
       </c>
       <c r="K3" t="n">
-        <v>476.3497876767088</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L3" t="n">
-        <v>959.915873575022</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="M3" t="n">
-        <v>1120.003902136675</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="N3" t="n">
-        <v>1658.262687146768</v>
+        <v>1471.526139546294</v>
       </c>
       <c r="O3" t="n">
-        <v>2174.782969737749</v>
+        <v>1471.526139546294</v>
       </c>
       <c r="P3" t="n">
-        <v>2174.782969737749</v>
+        <v>1877.147508262692</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635814</v>
+        <v>2051.24529471499</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535682</v>
+        <v>1916.314617614858</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.951437734591</v>
+        <v>1739.330805813767</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.888294413233</v>
+        <v>1591.404104778525</v>
       </c>
       <c r="V3" t="n">
-        <v>1406.3482927843</v>
+        <v>1591.404104778525</v>
       </c>
       <c r="W3" t="n">
-        <v>1176.231046917587</v>
+        <v>1361.286858911812</v>
       </c>
       <c r="X3" t="n">
-        <v>986.9239692675983</v>
+        <v>1171.979781261824</v>
       </c>
       <c r="Y3" t="n">
-        <v>807.6097523431056</v>
+        <v>992.6655643373308</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>204.4198964671115</v>
+        <v>504.4151336486743</v>
       </c>
       <c r="C4" t="n">
-        <v>204.4198964671115</v>
+        <v>334.2100157146635</v>
       </c>
       <c r="D4" t="n">
-        <v>204.4198964671115</v>
+        <v>334.2100157146635</v>
       </c>
       <c r="E4" t="n">
-        <v>198.974210433261</v>
+        <v>334.2100157146635</v>
       </c>
       <c r="F4" t="n">
-        <v>198.974210433261</v>
+        <v>196.9817977948445</v>
       </c>
       <c r="G4" t="n">
-        <v>198.974210433261</v>
+        <v>196.9817977948445</v>
       </c>
       <c r="H4" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="I4" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662804</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167607</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S4" t="n">
-        <v>944.9426819363074</v>
+        <v>740.1341854804402</v>
       </c>
       <c r="T4" t="n">
-        <v>944.9426819363074</v>
+        <v>504.4151336486743</v>
       </c>
       <c r="U4" t="n">
-        <v>944.9426819363074</v>
+        <v>504.4151336486743</v>
       </c>
       <c r="V4" t="n">
-        <v>944.9426819363074</v>
+        <v>504.4151336486743</v>
       </c>
       <c r="W4" t="n">
-        <v>661.6122798674851</v>
+        <v>504.4151336486743</v>
       </c>
       <c r="X4" t="n">
-        <v>427.5319576504681</v>
+        <v>504.4151336486743</v>
       </c>
       <c r="Y4" t="n">
-        <v>204.4198964671115</v>
+        <v>504.4151336486743</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>982.4257924839028</v>
+        <v>1244.679787821407</v>
       </c>
       <c r="C5" t="n">
-        <v>589.2502909868333</v>
+        <v>851.5042863243373</v>
       </c>
       <c r="D5" t="n">
-        <v>203.8091622035011</v>
+        <v>466.063157541005</v>
       </c>
       <c r="E5" t="n">
-        <v>203.8091622035011</v>
+        <v>63.47963265754946</v>
       </c>
       <c r="F5" t="n">
-        <v>190.9551277738829</v>
+        <v>50.62559822793128</v>
       </c>
       <c r="G5" t="n">
-        <v>181.8327763022902</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="H5" t="n">
-        <v>181.8327763022902</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="J5" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="K5" t="n">
-        <v>43.49565939475499</v>
+        <v>400.4856027838003</v>
       </c>
       <c r="L5" t="n">
-        <v>320.485808066344</v>
+        <v>893.8058945023292</v>
       </c>
       <c r="M5" t="n">
-        <v>858.7445930764369</v>
+        <v>1407.408573112018</v>
       </c>
       <c r="N5" t="n">
-        <v>1386.555876713899</v>
+        <v>1407.408573112018</v>
       </c>
       <c r="O5" t="n">
-        <v>1826.595477606227</v>
+        <v>1726.974845685403</v>
       </c>
       <c r="P5" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="R5" t="n">
-        <v>2139.929694094547</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="S5" t="n">
-        <v>1973.416139035598</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="T5" t="n">
-        <v>1749.915536595014</v>
+        <v>1851.661735376342</v>
       </c>
       <c r="U5" t="n">
-        <v>1749.915536595014</v>
+        <v>1851.661735376342</v>
       </c>
       <c r="V5" t="n">
-        <v>1749.915536595014</v>
+        <v>1851.661735376342</v>
       </c>
       <c r="W5" t="n">
-        <v>1378.916501563302</v>
+        <v>1851.661735376342</v>
       </c>
       <c r="X5" t="n">
-        <v>1378.916501563302</v>
+        <v>1851.661735376342</v>
       </c>
       <c r="Y5" t="n">
-        <v>982.4257924839028</v>
+        <v>1645.174533532804</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>842.8616425347859</v>
+        <v>840.8692298963695</v>
       </c>
       <c r="C6" t="n">
-        <v>692.2074120948781</v>
+        <v>690.2149994564617</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163585</v>
+        <v>560.126032077942</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272462</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F6" t="n">
-        <v>301.240147710378</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822425</v>
+        <v>179.187917143826</v>
       </c>
       <c r="H6" t="n">
-        <v>92.8829133828434</v>
+        <v>90.89050074442692</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144824</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="K6" t="n">
-        <v>156.6106416144824</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="L6" t="n">
-        <v>581.7451171265825</v>
+        <v>525.0693326546517</v>
       </c>
       <c r="M6" t="n">
-        <v>1120.003902136675</v>
+        <v>1038.672011264341</v>
       </c>
       <c r="N6" t="n">
-        <v>1658.262687146768</v>
+        <v>1038.672011264341</v>
       </c>
       <c r="O6" t="n">
-        <v>2174.782969737749</v>
+        <v>1552.27468987403</v>
       </c>
       <c r="P6" t="n">
-        <v>2174.782969737749</v>
+        <v>1957.896058590427</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="R6" t="n">
-        <v>2150.865926635814</v>
+        <v>2051.24529471499</v>
       </c>
       <c r="S6" t="n">
-        <v>2015.935249535682</v>
+        <v>1916.314617614858</v>
       </c>
       <c r="T6" t="n">
-        <v>1838.951437734591</v>
+        <v>1739.330805813767</v>
       </c>
       <c r="U6" t="n">
-        <v>1628.888294413233</v>
+        <v>1529.267662492409</v>
       </c>
       <c r="V6" t="n">
-        <v>1593.396517416941</v>
+        <v>1306.727660863476</v>
       </c>
       <c r="W6" t="n">
-        <v>1363.279271550228</v>
+        <v>1306.727660863476</v>
       </c>
       <c r="X6" t="n">
-        <v>1173.97219390024</v>
+        <v>1171.979781261824</v>
       </c>
       <c r="Y6" t="n">
-        <v>994.6579769757473</v>
+        <v>992.6655643373308</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>536.6226020616494</v>
+        <v>473.1508952491081</v>
       </c>
       <c r="C7" t="n">
-        <v>366.4174841276387</v>
+        <v>302.9457773150973</v>
       </c>
       <c r="D7" t="n">
-        <v>210.7843710301534</v>
+        <v>302.9457773150973</v>
       </c>
       <c r="E7" t="n">
-        <v>55.22555888935591</v>
+        <v>204.9759422931587</v>
       </c>
       <c r="F7" t="n">
-        <v>43.49565939475499</v>
+        <v>204.9759422931587</v>
       </c>
       <c r="G7" t="n">
-        <v>43.49565939475499</v>
+        <v>204.9759422931587</v>
       </c>
       <c r="H7" t="n">
-        <v>43.49565939475499</v>
+        <v>204.9759422931587</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475499</v>
+        <v>71.88151693023656</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662804</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167607</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T7" t="n">
-        <v>944.9426819363074</v>
+        <v>707.231217466125</v>
       </c>
       <c r="U7" t="n">
-        <v>944.9426819363074</v>
+        <v>707.231217466125</v>
       </c>
       <c r="V7" t="n">
-        <v>944.9426819363074</v>
+        <v>707.231217466125</v>
       </c>
       <c r="W7" t="n">
-        <v>944.9426819363074</v>
+        <v>707.231217466125</v>
       </c>
       <c r="X7" t="n">
-        <v>944.9426819363074</v>
+        <v>473.1508952491081</v>
       </c>
       <c r="Y7" t="n">
-        <v>721.8306207529507</v>
+        <v>473.1508952491081</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1171.989036716666</v>
+        <v>454.7304847860868</v>
       </c>
       <c r="C8" t="n">
-        <v>778.8135352195961</v>
+        <v>454.7304847860868</v>
       </c>
       <c r="D8" t="n">
-        <v>393.3724064362639</v>
+        <v>69.28935600275456</v>
       </c>
       <c r="E8" t="n">
-        <v>393.3724064362639</v>
+        <v>69.28935600275456</v>
       </c>
       <c r="F8" t="n">
-        <v>380.5183720066457</v>
+        <v>56.43532157313638</v>
       </c>
       <c r="G8" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H8" t="n">
         <v>47.31297010154361</v>
@@ -4802,19 +4802,19 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>899.6156178475343</v>
+        <v>851.7967205028091</v>
       </c>
       <c r="M8" t="n">
-        <v>1445.616517892115</v>
+        <v>1397.79762054739</v>
       </c>
       <c r="N8" t="n">
-        <v>1973.427801529577</v>
+        <v>1925.608904184852</v>
       </c>
       <c r="O8" t="n">
         <v>2365.64850507718</v>
@@ -4829,25 +4829,25 @@
         <v>2365.64850507718</v>
       </c>
       <c r="S8" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T8" t="n">
-        <v>2142.147902636597</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="U8" t="n">
-        <v>1886.395173071196</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="V8" t="n">
-        <v>1886.395173071196</v>
+        <v>1377.774808715765</v>
       </c>
       <c r="W8" t="n">
-        <v>1572.483782428063</v>
+        <v>1006.775773684052</v>
       </c>
       <c r="X8" t="n">
-        <v>1572.483782428063</v>
+        <v>617.323168617109</v>
       </c>
       <c r="Y8" t="n">
-        <v>1572.483782428063</v>
+        <v>454.7304847860868</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154367</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>47.31297010154361</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L9" t="n">
-        <v>47.31297010154361</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M9" t="n">
-        <v>623.6437572083089</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N9" t="n">
-        <v>1209.141762214911</v>
+        <v>2134.729194295015</v>
       </c>
       <c r="O9" t="n">
-        <v>1725.662044805892</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P9" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4987,16 +4987,16 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>745.9439088256454</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>745.9439088256454</v>
+        <v>882.0615091076409</v>
       </c>
       <c r="U10" t="n">
-        <v>460.5051170675463</v>
+        <v>596.6227173495417</v>
       </c>
       <c r="V10" t="n">
-        <v>194.5257718883706</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W10" t="n">
         <v>47.31297010154361</v>
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1702.435468430418</v>
+        <v>1691.856237801876</v>
       </c>
       <c r="C11" t="n">
-        <v>1381.056242079542</v>
+        <v>1370.477011451001</v>
       </c>
       <c r="D11" t="n">
-        <v>1067.411388442404</v>
+        <v>1056.832157813862</v>
       </c>
       <c r="E11" t="n">
-        <v>1067.411388442404</v>
+        <v>726.0449080766007</v>
       </c>
       <c r="F11" t="n">
-        <v>722.3132251185752</v>
+        <v>380.9467447527724</v>
       </c>
       <c r="G11" t="n">
-        <v>380.9467447527722</v>
+        <v>380.9467447527724</v>
       </c>
       <c r="H11" t="n">
-        <v>128.6599694654569</v>
+        <v>128.6599694654568</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J11" t="n">
         <v>206.7689006129436</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3011.239105293021</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T11" t="n">
-        <v>2972.687462735094</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="U11" t="n">
-        <v>2972.687462735094</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="V11" t="n">
-        <v>2972.687462735094</v>
+        <v>2835.645851055488</v>
       </c>
       <c r="W11" t="n">
-        <v>2673.484702849575</v>
+        <v>2536.443091169969</v>
       </c>
       <c r="X11" t="n">
-        <v>2355.828372928826</v>
+        <v>2218.78676124922</v>
       </c>
       <c r="Y11" t="n">
-        <v>2031.13393899562</v>
+        <v>2020.554708367079</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5115,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I12" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J12" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>112.6101842924878</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L12" t="n">
-        <v>596.176270190801</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M12" t="n">
-        <v>1223.947919817482</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N12" t="n">
-        <v>1223.947919817482</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O12" t="n">
-        <v>1740.468202408463</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="P12" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>411.8096213301396</v>
+        <v>485.8832744089161</v>
       </c>
       <c r="C13" t="n">
-        <v>313.4007785423227</v>
+        <v>387.4744316210993</v>
       </c>
       <c r="D13" t="n">
-        <v>229.5639405910313</v>
+        <v>303.637593669808</v>
       </c>
       <c r="E13" t="n">
-        <v>145.8014035964277</v>
+        <v>219.8750566752044</v>
       </c>
       <c r="F13" t="n">
-        <v>145.8014035964277</v>
+        <v>219.8750566752044</v>
       </c>
       <c r="G13" t="n">
-        <v>145.8014035964277</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="H13" t="n">
-        <v>62.11912770411553</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="I13" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J13" t="n">
-        <v>102.7129143774628</v>
+        <v>102.7129143774625</v>
       </c>
       <c r="K13" t="n">
-        <v>254.9154847581892</v>
+        <v>254.915484758189</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027736</v>
+        <v>489.4106539027733</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118222</v>
+        <v>746.069761511822</v>
       </c>
       <c r="N13" t="n">
         <v>999.626924813816</v>
@@ -5221,28 +5221,28 @@
         <v>1496.732641814507</v>
       </c>
       <c r="R13" t="n">
-        <v>1496.732641814507</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="S13" t="n">
-        <v>1365.712833143251</v>
+        <v>1339.710224211292</v>
       </c>
       <c r="T13" t="n">
-        <v>1201.790056457679</v>
+        <v>1175.78744752572</v>
       </c>
       <c r="U13" t="n">
-        <v>1201.790056457679</v>
+        <v>962.144930913815</v>
       </c>
       <c r="V13" t="n">
-        <v>1007.606986424697</v>
+        <v>962.144930913815</v>
       </c>
       <c r="W13" t="n">
-        <v>796.0728595020681</v>
+        <v>750.6108039911865</v>
       </c>
       <c r="X13" t="n">
-        <v>633.7888124312451</v>
+        <v>750.6108039911865</v>
       </c>
       <c r="Y13" t="n">
-        <v>525.221364875247</v>
+        <v>599.2950179540236</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1719.577864530541</v>
+        <v>1373.028620753219</v>
       </c>
       <c r="C14" t="n">
-        <v>1398.198638179665</v>
+        <v>1051.649394402344</v>
       </c>
       <c r="D14" t="n">
-        <v>1398.198638179665</v>
+        <v>738.0045407652054</v>
       </c>
       <c r="E14" t="n">
-        <v>1067.411388442404</v>
+        <v>407.2172910279439</v>
       </c>
       <c r="F14" t="n">
-        <v>722.3132251185754</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G14" t="n">
-        <v>380.9467447527724</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H14" t="n">
-        <v>128.6599694654568</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3011.239105293021</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T14" t="n">
-        <v>2859.534777998631</v>
+        <v>2954.252057911387</v>
       </c>
       <c r="U14" t="n">
-        <v>2690.627098949698</v>
+        <v>2770.295603492179</v>
       </c>
       <c r="V14" t="n">
-        <v>2690.627098949698</v>
+        <v>2499.985069341892</v>
       </c>
       <c r="W14" t="n">
-        <v>2690.627098949698</v>
+        <v>2344.077855172377</v>
       </c>
       <c r="X14" t="n">
-        <v>2372.970769028949</v>
+        <v>2026.421525251628</v>
       </c>
       <c r="Y14" t="n">
-        <v>2048.276335095744</v>
+        <v>1701.727091318422</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>112.6101842924878</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>112.6101842924878</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>596.176270190801</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>1223.947919817482</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N15" t="n">
-        <v>1223.947919817482</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O15" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P15" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,46 +5410,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>556.6863671542447</v>
+        <v>290.9363917644472</v>
       </c>
       <c r="C16" t="n">
-        <v>556.6863671542447</v>
+        <v>290.9363917644472</v>
       </c>
       <c r="D16" t="n">
-        <v>472.8495292029534</v>
+        <v>207.0995538131558</v>
       </c>
       <c r="E16" t="n">
-        <v>389.0869922083497</v>
+        <v>207.0995538131558</v>
       </c>
       <c r="F16" t="n">
-        <v>303.5573325675165</v>
+        <v>207.0995538131558</v>
       </c>
       <c r="G16" t="n">
-        <v>207.0995538131559</v>
+        <v>207.0995538131558</v>
       </c>
       <c r="H16" t="n">
-        <v>123.4172779208438</v>
+        <v>123.4172779208436</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>102.7129143774627</v>
+        <v>102.7129143774626</v>
       </c>
       <c r="K16" t="n">
-        <v>254.9154847581889</v>
+        <v>254.9154847581891</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027733</v>
+        <v>489.4106539027734</v>
       </c>
       <c r="M16" t="n">
-        <v>746.069761511822</v>
+        <v>746.0697615118221</v>
       </c>
       <c r="N16" t="n">
-        <v>999.6269248138158</v>
+        <v>999.6269248138159</v>
       </c>
       <c r="O16" t="n">
-        <v>1232.699221126308</v>
+        <v>1232.699221126309</v>
       </c>
       <c r="P16" t="n">
         <v>1422.942916173672</v>
@@ -5458,28 +5458,28 @@
         <v>1496.732641814507</v>
       </c>
       <c r="R16" t="n">
-        <v>1496.732641814507</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="S16" t="n">
-        <v>1496.732641814507</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="T16" t="n">
-        <v>1408.874587341872</v>
+        <v>1280.705150907706</v>
       </c>
       <c r="U16" t="n">
-        <v>1195.232070729967</v>
+        <v>1123.665165373151</v>
       </c>
       <c r="V16" t="n">
-        <v>1195.232070729967</v>
+        <v>929.4820953401691</v>
       </c>
       <c r="W16" t="n">
-        <v>983.6979438073381</v>
+        <v>717.9479684175406</v>
       </c>
       <c r="X16" t="n">
-        <v>821.413896736515</v>
+        <v>555.6639213467174</v>
       </c>
       <c r="Y16" t="n">
-        <v>670.0981106993522</v>
+        <v>404.3481353095547</v>
       </c>
     </row>
     <row r="17">
@@ -5498,25 +5498,25 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975451</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099317</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803433</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H17" t="n">
-        <v>68.7795079292424</v>
+        <v>68.77950792924214</v>
       </c>
       <c r="I17" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J17" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K17" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L17" t="n">
         <v>1059.071548358934</v>
@@ -5546,7 +5546,7 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U17" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V17" t="n">
         <v>2644.789635573994</v>
@@ -5555,7 +5555,7 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X17" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y17" t="n">
         <v>1882.877496443165</v>
@@ -5598,16 +5598,16 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>580.3847592515303</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>1208.156408878212</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N18" t="n">
-        <v>1863.93438008877</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O18" t="n">
-        <v>2380.454662679751</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="P18" t="n">
         <v>2380.454662679751</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885588</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369566</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218799</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634909</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588725</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072654</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462908</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291067</v>
       </c>
       <c r="K19" t="n">
-        <v>149.5338114222407</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L19" t="n">
-        <v>313.6614512960405</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M19" t="n">
-        <v>499.9530296343045</v>
+        <v>593.6560140511124</v>
       </c>
       <c r="N19" t="n">
-        <v>812.1990332879423</v>
+        <v>812.1990332879416</v>
       </c>
       <c r="O19" t="n">
-        <v>974.9038003296503</v>
+        <v>974.9038003296496</v>
       </c>
       <c r="P19" t="n">
-        <v>1094.779966106229</v>
+        <v>1094.779966106228</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S19" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918796</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161897</v>
+        <v>769.258445116189</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194218</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330086</v>
+        <v>483.302171233008</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856983996</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974515</v>
       </c>
     </row>
     <row r="20">
@@ -5795,7 +5795,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="21">
@@ -5832,22 +5832,22 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>175.2341099238429</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>175.2341099238429</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
-        <v>568.1699486069232</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N21" t="n">
-        <v>1223.947919817482</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O21" t="n">
-        <v>1740.468202408463</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="P21" t="n">
-        <v>2146.089571124861</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5908,28 +5908,28 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K22" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L22" t="n">
-        <v>308.0818086878572</v>
+        <v>435.0968109750519</v>
       </c>
       <c r="M22" t="n">
-        <v>494.3733870261212</v>
+        <v>621.3883893133159</v>
       </c>
       <c r="N22" t="n">
-        <v>683.1426636655135</v>
+        <v>804.578023344525</v>
       </c>
       <c r="O22" t="n">
-        <v>845.8474307072216</v>
+        <v>967.282790386233</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.779966106229</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532862</v>
       </c>
       <c r="R22" t="n">
         <v>1098.20216247628</v>
@@ -5972,25 +5972,25 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803431</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H23" t="n">
-        <v>68.7795079292422</v>
+        <v>68.7795079292424</v>
       </c>
       <c r="I23" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J23" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K23" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L23" t="n">
         <v>1059.071548358934</v>
@@ -6029,7 +6029,7 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X23" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y23" t="n">
         <v>1882.877496443165</v>
@@ -6066,25 +6066,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>62.11912770411553</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>568.1699486069232</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N24" t="n">
-        <v>1223.947919817482</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O24" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P24" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6148,25 +6148,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>143.9541688140574</v>
+        <v>270.9691711012521</v>
       </c>
       <c r="L25" t="n">
-        <v>313.6614512960405</v>
+        <v>435.0968109750519</v>
       </c>
       <c r="M25" t="n">
-        <v>499.9530296343045</v>
+        <v>621.3883893133159</v>
       </c>
       <c r="N25" t="n">
-        <v>812.1990332879423</v>
+        <v>804.578023344525</v>
       </c>
       <c r="O25" t="n">
-        <v>974.9038003296503</v>
+        <v>967.282790386233</v>
       </c>
       <c r="P25" t="n">
-        <v>1094.779966106229</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532862</v>
       </c>
       <c r="R25" t="n">
         <v>1098.20216247628</v>
@@ -6203,7 +6203,7 @@
         <v>1882.457606424153</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D26" t="n">
         <v>1293.722338718127</v>
@@ -6227,25 +6227,25 @@
         <v>218.0146318563784</v>
       </c>
       <c r="K26" t="n">
-        <v>576.9969878838402</v>
+        <v>670.0483496134135</v>
       </c>
       <c r="L26" t="n">
-        <v>1163.368641331942</v>
+        <v>1193.338156614365</v>
       </c>
       <c r="M26" t="n">
-        <v>1802.420903106096</v>
+        <v>1832.390418388519</v>
       </c>
       <c r="N26" t="n">
-        <v>2423.283548473132</v>
+        <v>2453.253063755555</v>
       </c>
       <c r="O26" t="n">
-        <v>2956.374511095034</v>
+        <v>2986.344026377456</v>
       </c>
       <c r="P26" t="n">
-        <v>3390.346025506991</v>
+        <v>3334.531518508978</v>
       </c>
       <c r="Q26" t="n">
-        <v>3668.242947377513</v>
+        <v>3612.4284403795</v>
       </c>
       <c r="R26" t="n">
         <v>3668.242947377513</v>
@@ -6269,7 +6269,7 @@
         <v>2489.561698640572</v>
       </c>
       <c r="Y26" t="n">
-        <v>2188.011670848362</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="27">
@@ -6303,19 +6303,19 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J27" t="n">
-        <v>73.36485894755026</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K27" t="n">
-        <v>108.0644045966515</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L27" t="n">
-        <v>591.6304904949648</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M27" t="n">
-        <v>1219.402140121646</v>
+        <v>1617.556722754498</v>
       </c>
       <c r="N27" t="n">
-        <v>1875.180111332205</v>
+        <v>2273.334693965057</v>
       </c>
       <c r="O27" t="n">
         <v>2391.700393923186</v>
@@ -6388,7 +6388,7 @@
         <v>311.5288809192012</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225742</v>
+        <v>568.7078825225743</v>
       </c>
       <c r="M28" t="n">
         <v>848.0508225904116</v>
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C29" t="n">
         <v>1584.222786214271</v>
@@ -6467,22 +6467,22 @@
         <v>763.0997113429868</v>
       </c>
       <c r="L29" t="n">
-        <v>1349.471364791089</v>
+        <v>1286.389518343938</v>
       </c>
       <c r="M29" t="n">
-        <v>1895.47226483567</v>
+        <v>1925.441780118092</v>
       </c>
       <c r="N29" t="n">
-        <v>2509.067570753567</v>
+        <v>2546.304425485127</v>
       </c>
       <c r="O29" t="n">
-        <v>3042.158533375469</v>
+        <v>2986.344026377456</v>
       </c>
       <c r="P29" t="n">
-        <v>3390.346025506991</v>
+        <v>3334.531518508978</v>
       </c>
       <c r="Q29" t="n">
-        <v>3668.242947377513</v>
+        <v>3612.4284403795</v>
       </c>
       <c r="R29" t="n">
         <v>3668.242947377513</v>
@@ -6497,13 +6497,13 @@
         <v>3307.298104174144</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.13197616485</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y29" t="n">
         <v>2188.011670848361</v>
@@ -6540,25 +6540,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
-        <v>73.36485894755026</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K30" t="n">
-        <v>73.36485894755026</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L30" t="n">
-        <v>73.36485894755026</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>701.1365085742315</v>
+        <v>1617.556722754498</v>
       </c>
       <c r="N30" t="n">
-        <v>1356.914479784791</v>
+        <v>2273.334693965057</v>
       </c>
       <c r="O30" t="n">
-        <v>1873.434762375772</v>
+        <v>2273.334693965057</v>
       </c>
       <c r="P30" t="n">
-        <v>2279.056131092169</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="Q30" t="n">
         <v>2391.700393923186</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.330098198535</v>
+        <v>504.3300981985348</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517127</v>
+        <v>429.0656615517124</v>
       </c>
       <c r="D31" t="n">
         <v>368.3732297414157</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878066</v>
+        <v>307.7550988878065</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879679</v>
+        <v>245.3698453879678</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746018</v>
+        <v>172.0564727746017</v>
       </c>
       <c r="H31" t="n">
         <v>111.5186030232841</v>
@@ -6619,16 +6619,16 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.642478079686</v>
+        <v>136.6424780796859</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192011</v>
+        <v>311.5288809192008</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225742</v>
+        <v>568.7078825225739</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904115</v>
+        <v>848.0508225904113</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
@@ -6643,7 +6643,7 @@
         <v>1689.449032728251</v>
       </c>
       <c r="R31" t="n">
-        <v>1660.488724648017</v>
+        <v>1660.488724648016</v>
       </c>
       <c r="S31" t="n">
         <v>1552.613322117754</v>
@@ -6655,16 +6655,16 @@
         <v>1221.336841102266</v>
       </c>
       <c r="V31" t="n">
-        <v>1050.298177210279</v>
+        <v>1050.298177210278</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286447</v>
+        <v>861.9084564286445</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988161</v>
+        <v>722.7688154988159</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026478</v>
+        <v>594.5974356026476</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222131</v>
+        <v>1743.79887591859</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654426</v>
+        <v>1464.542485303045</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800458</v>
+        <v>1193.020467401239</v>
       </c>
       <c r="E32" t="n">
-        <v>932.382657846367</v>
+        <v>904.3560533993082</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057093</v>
+        <v>601.3807258108109</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230771</v>
+        <v>302.137081180339</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189323</v>
+        <v>91.97314162835531</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076164</v>
+        <v>67.55513560234516</v>
       </c>
       <c r="J32" t="n">
-        <v>319.47041387666</v>
+        <v>292.50190910602</v>
       </c>
       <c r="K32" t="n">
-        <v>763.8629527501305</v>
+        <v>651.4842651334818</v>
       </c>
       <c r="L32" t="n">
-        <v>1257.183244468659</v>
+        <v>1144.804556852011</v>
       </c>
       <c r="M32" t="n">
-        <v>1803.18414451324</v>
+        <v>1690.805456896591</v>
       </c>
       <c r="N32" t="n">
-        <v>2330.995428150702</v>
+        <v>2218.616740534053</v>
       </c>
       <c r="O32" t="n">
-        <v>2771.035029043031</v>
+        <v>2658.656341426382</v>
       </c>
       <c r="P32" t="n">
-        <v>3119.222521174553</v>
+        <v>3006.843833557904</v>
       </c>
       <c r="Q32" t="n">
-        <v>3409.341174042571</v>
+        <v>3303.341514273835</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038082</v>
+        <v>3377.756780117258</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908497</v>
+        <v>3325.162335939834</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397278</v>
+        <v>3215.580844380775</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761242</v>
+        <v>3073.747225696899</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394124</v>
+        <v>2845.559527281941</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291777</v>
+        <v>2588.479603131754</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154198</v>
+        <v>2312.946108946336</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004163</v>
+        <v>2030.374510748462</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423762</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024684</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239487</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732529</v>
+        <v>449.7314300348364</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563847</v>
+        <v>325.2996239179682</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.9348022288501</v>
+        <v>116.9423895904336</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076164</v>
+        <v>67.55513560234516</v>
       </c>
       <c r="J33" t="n">
-        <v>69.54754824076164</v>
+        <v>180.6701178220725</v>
       </c>
       <c r="K33" t="n">
-        <v>69.54754824076164</v>
+        <v>500.409263884299</v>
       </c>
       <c r="L33" t="n">
-        <v>69.54754824076164</v>
+        <v>983.9753497826123</v>
       </c>
       <c r="M33" t="n">
-        <v>697.3191978674429</v>
+        <v>1611.746999409293</v>
       </c>
       <c r="N33" t="n">
-        <v>1353.097169078002</v>
+        <v>2267.524970619852</v>
       </c>
       <c r="O33" t="n">
-        <v>1869.617451668983</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="P33" t="n">
-        <v>2275.23882038538</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183338</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.223615996513</v>
+        <v>365.6713676929731</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918668</v>
+        <v>309.3853606404874</v>
       </c>
       <c r="D34" t="n">
-        <v>302.206510823746</v>
+        <v>267.6713584245271</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123131</v>
+        <v>226.0316571652547</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546506</v>
+        <v>182.6248332597526</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834607</v>
+        <v>128.2898902407232</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431919</v>
+        <v>86.73045008374224</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076164</v>
+        <v>67.55513560234516</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703943</v>
+        <v>143.5810516071593</v>
       </c>
       <c r="K34" t="n">
-        <v>332.1550322074064</v>
+        <v>337.0682132920839</v>
       </c>
       <c r="L34" t="n">
-        <v>601.5557648082763</v>
+        <v>612.8479737408663</v>
       </c>
       <c r="M34" t="n">
-        <v>893.1204358736105</v>
+        <v>910.791672654113</v>
       </c>
       <c r="N34" t="n">
-        <v>1076.31006990482</v>
+        <v>1093.981306685322</v>
       </c>
       <c r="O34" t="n">
-        <v>1239.014836946528</v>
+        <v>1256.68607372703</v>
       </c>
       <c r="P34" t="n">
-        <v>1377.418326649523</v>
+        <v>1376.562239503609</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746644</v>
+        <v>1379.98443587366</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308585</v>
+        <v>1370.002557387761</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420499</v>
+        <v>1281.105584451836</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518098</v>
+        <v>1159.305643501595</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689363</v>
+        <v>987.7859626250211</v>
       </c>
       <c r="V34" t="n">
-        <v>909.312168439552</v>
+        <v>835.7257283273703</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000942</v>
+        <v>666.314437140073</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124418</v>
+        <v>546.1532258045811</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584497</v>
+        <v>436.9602755027494</v>
       </c>
     </row>
     <row r="35">
@@ -6917,19 +6917,19 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D35" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G35" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924243</v>
+        <v>68.7795079292424</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411573</v>
@@ -6974,7 +6974,7 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X35" t="n">
         <v>2147.691468840156</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
@@ -7096,25 +7096,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
-        <v>273.0105384364859</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>437.1381783102858</v>
+        <v>435.0968109750519</v>
       </c>
       <c r="M37" t="n">
-        <v>623.4297566485498</v>
+        <v>621.3883893133159</v>
       </c>
       <c r="N37" t="n">
-        <v>806.6193906797589</v>
+        <v>804.578023344525</v>
       </c>
       <c r="O37" t="n">
-        <v>969.3241577214669</v>
+        <v>967.282790386233</v>
       </c>
       <c r="P37" t="n">
-        <v>1089.200323498045</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q37" t="n">
-        <v>1092.622519868096</v>
+        <v>1090.581152532862</v>
       </c>
       <c r="R37" t="n">
         <v>1098.20216247628</v>
@@ -7123,22 +7123,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U37" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="38">
@@ -7157,16 +7157,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803431</v>
+        <v>261.1858216803433</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7266,10 +7266,10 @@
         <v>2262.088962721623</v>
       </c>
       <c r="O39" t="n">
-        <v>2262.088962721623</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P39" t="n">
-        <v>2262.088962721623</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
@@ -7333,25 +7333,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>273.0105384364859</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L40" t="n">
-        <v>437.1381783102858</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>623.4297566485498</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N40" t="n">
-        <v>806.6193906797589</v>
+        <v>804.578023344525</v>
       </c>
       <c r="O40" t="n">
-        <v>969.3241577214669</v>
+        <v>967.282790386233</v>
       </c>
       <c r="P40" t="n">
-        <v>1089.200323498045</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q40" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532862</v>
       </c>
       <c r="R40" t="n">
         <v>1098.20216247628</v>
@@ -7360,22 +7360,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U40" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="41">
@@ -7394,16 +7394,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975453</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F41" t="n">
         <v>542.6718405099314</v>
       </c>
       <c r="G41" t="n">
-        <v>261.1858216803431</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924217</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7445,10 +7445,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V41" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W41" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X41" t="n">
         <v>2147.691468840156</v>
@@ -7488,25 +7488,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>381.858273766342</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L42" t="n">
-        <v>865.4243596646552</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M42" t="n">
-        <v>1493.196009291336</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.973980501895</v>
+        <v>1942.349816659396</v>
       </c>
       <c r="O42" t="n">
-        <v>2380.454662679751</v>
+        <v>1942.349816659396</v>
       </c>
       <c r="P42" t="n">
-        <v>2380.454662679751</v>
+        <v>2347.971185375794</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.931979188559</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369567</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D43" t="n">
-        <v>173.44722152188</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634911</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G43" t="n">
-        <v>87.3386307407266</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462911</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K43" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L43" t="n">
-        <v>308.0818086878572</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M43" t="n">
-        <v>494.3733870261212</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N43" t="n">
-        <v>677.5630210573304</v>
+        <v>776.8456480823215</v>
       </c>
       <c r="O43" t="n">
-        <v>845.8474307072211</v>
+        <v>939.5504151240295</v>
       </c>
       <c r="P43" t="n">
-        <v>965.7235964837996</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q43" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R43" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S43" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T43" t="n">
-        <v>923.0205001918799</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U43" t="n">
-        <v>769.2584451161894</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194221</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330083</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856983999</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974517</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C44" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D44" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975451</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G44" t="n">
         <v>261.185821680343</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924214</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7673,13 +7673,13 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T44" t="n">
         <v>2979.295701071061</v>
       </c>
       <c r="U44" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V44" t="n">
         <v>2644.789635573994</v>
@@ -7688,7 +7688,7 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X44" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y44" t="n">
         <v>1882.877496443165</v>
@@ -7728,22 +7728,22 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>494.9732559860694</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L45" t="n">
-        <v>978.5393418843826</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M45" t="n">
-        <v>1606.310991511064</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="N45" t="n">
-        <v>2262.088962721623</v>
+        <v>1942.349816659396</v>
       </c>
       <c r="O45" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P45" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885588</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369566</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218799</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634909</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072654</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462908</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
@@ -7810,46 +7810,46 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L46" t="n">
-        <v>308.0818086878572</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M46" t="n">
-        <v>499.9530296343036</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N46" t="n">
-        <v>683.1426636655128</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O46" t="n">
-        <v>974.9038003296496</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P46" t="n">
-        <v>1094.779966106228</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S46" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T46" t="n">
-        <v>923.0205001918796</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U46" t="n">
-        <v>769.258445116189</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194218</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W46" t="n">
-        <v>483.302171233008</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856983996</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974515</v>
+        <v>289.463261197452</v>
       </c>
     </row>
   </sheetData>
@@ -7985,19 +7985,19 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>288.1928110140955</v>
+        <v>668.5156360519586</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920154</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>502.0059847475129</v>
+        <v>224.1336100998658</v>
       </c>
       <c r="Q2" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8064,19 +8064,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>254.0922014045173</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
-        <v>629.0678552886039</v>
+        <v>604.1626973083979</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P3" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.98815315591399</v>
+        <v>291.0031325036244</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8216,19 +8216,19 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>433.0361986916928</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321646</v>
+        <v>668.5156360519586</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O5" t="n">
-        <v>594.0482827698827</v>
+        <v>472.3580521446876</v>
       </c>
       <c r="P5" t="n">
         <v>502.0059847475129</v>
@@ -8292,28 +8292,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L6" t="n">
-        <v>519.4891100004537</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>636.0828644837492</v>
+        <v>611.1777065035432</v>
       </c>
       <c r="N6" t="n">
-        <v>629.0678552886039</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431202</v>
       </c>
       <c r="P6" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.98815315591399</v>
+        <v>209.4389402533867</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
-        <v>651.5514946987026</v>
+        <v>457.1386964627902</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
@@ -8465,7 +8465,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>545.7463662600596</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
         <v>150.3014472409252</v>
@@ -8529,28 +8529,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>674.5394322581658</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
         <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
-        <v>614.4252180716981</v>
+        <v>325.939387961783</v>
       </c>
       <c r="P9" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q9" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8708,7 +8708,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q11" t="n">
-        <v>331.2113854294514</v>
+        <v>331.211385429451</v>
       </c>
       <c r="R11" t="n">
         <v>102.5176150018526</v>
@@ -8766,10 +8766,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>140.5980025943154</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
         <v>578.5109386733963</v>
@@ -8778,16 +8778,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P12" t="n">
-        <v>496.801919078302</v>
+        <v>206.6446779083334</v>
       </c>
       <c r="Q12" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9003,10 +9003,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>133.4455245943154</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
@@ -9015,16 +9015,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O15" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P15" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q15" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9246,7 +9246,7 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>176.3345925796061</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
         <v>726.4998994499999</v>
@@ -9255,10 +9255,10 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P18" t="n">
-        <v>87.08336481931465</v>
+        <v>206.6446779083334</v>
       </c>
       <c r="Q18" t="n">
         <v>90.98815315591399</v>
@@ -9480,25 +9480,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>489.2920096079789</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P21" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q21" t="n">
-        <v>327.7205688679246</v>
+        <v>210.5494662449327</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9714,28 +9714,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>603.5495674056833</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P24" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q24" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9951,10 +9951,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>124.6469814435366</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
         <v>578.5109386733963</v>
@@ -9966,7 +9966,7 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P27" t="n">
         <v>87.08336481931465</v>
@@ -10188,13 +10188,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
         <v>726.4998994499999</v>
@@ -10203,13 +10203,13 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O30" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P30" t="n">
-        <v>496.801919078302</v>
+        <v>206.6446779083334</v>
       </c>
       <c r="Q30" t="n">
-        <v>204.7702368236079</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10425,13 +10425,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
         <v>726.4998994499999</v>
@@ -10440,13 +10440,13 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O33" t="n">
-        <v>614.4252180716981</v>
+        <v>212.248871977908</v>
       </c>
       <c r="P33" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q33" t="n">
-        <v>204.7702368236083</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10914,13 +10914,13 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O39" t="n">
-        <v>92.68755888888889</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P39" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.5494662449327</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11136,10 +11136,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L42" t="n">
         <v>578.5109386733963</v>
@@ -11151,13 +11151,13 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
-        <v>326.5064297756122</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P42" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.98815315591399</v>
+        <v>123.7997463922351</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11376,7 +11376,7 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L45" t="n">
         <v>578.5109386733963</v>
@@ -11388,13 +11388,13 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O45" t="n">
-        <v>212.2488719779076</v>
+        <v>298.4852906721864</v>
       </c>
       <c r="P45" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23264,13 +23264,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>327.4793772398889</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23306,16 +23306,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>93.77010711362803</v>
       </c>
       <c r="T11" t="n">
-        <v>112.0211578890981</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750154</v>
+        <v>182.1168898750155</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087848</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>125.1977572405544</v>
       </c>
     </row>
     <row r="12">
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442485</v>
+        <v>84.67436304442487</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681699</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>82.84545313338904</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456096</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901688</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>25.84108423637805</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>211.5060914457861</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
-        <v>42.32085509635299</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23498,7 +23498,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>310.508405100767</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23507,13 +23507,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>65.87543334372791</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,19 +23543,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>93.77010711362803</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>14.89828761657176</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087848</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866635</v>
+        <v>141.8625902588441</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23653,19 +23653,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993875</v>
+        <v>97.42475435993876</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>82.9249116246576</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>84.67436304442487</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>95.493200966817</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,19 +23698,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901688</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
-        <v>75.30407499080707</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>56.03650576657652</v>
       </c>
       <c r="V16" t="n">
-        <v>192.2412393326521</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -24020,7 +24020,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-6.963318810448982e-13</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>90166.08904667843</v>
+        <v>90166.08904667836</v>
       </c>
       <c r="C2" t="n">
-        <v>90166.08904667837</v>
+        <v>90166.08904667839</v>
       </c>
       <c r="D2" t="n">
-        <v>90166.08904667837</v>
+        <v>90166.08904667836</v>
       </c>
       <c r="E2" t="n">
         <v>79679.51171220039</v>
       </c>
       <c r="F2" t="n">
-        <v>79679.51171220039</v>
+        <v>79679.5117122004</v>
       </c>
       <c r="G2" t="n">
+        <v>90166.08904667845</v>
+      </c>
+      <c r="H2" t="n">
+        <v>90166.08904667842</v>
+      </c>
+      <c r="I2" t="n">
         <v>90166.08904667843</v>
       </c>
-      <c r="H2" t="n">
-        <v>90166.08904667846</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>90166.0890466784</v>
       </c>
-      <c r="J2" t="n">
-        <v>90166.08904667837</v>
-      </c>
       <c r="K2" t="n">
-        <v>90166.08904667839</v>
+        <v>90166.08904667842</v>
       </c>
       <c r="L2" t="n">
-        <v>90166.08904667862</v>
+        <v>90166.0890466784</v>
       </c>
       <c r="M2" t="n">
         <v>90166.08904667843</v>
       </c>
       <c r="N2" t="n">
-        <v>90166.08904667843</v>
+        <v>90166.08904667842</v>
       </c>
       <c r="O2" t="n">
-        <v>90166.08904667843</v>
+        <v>90166.08904667842</v>
       </c>
       <c r="P2" t="n">
         <v>90166.08904667843</v>
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918559</v>
+        <v>173858.6570340554</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062187</v>
+        <v>22558.42953401326</v>
       </c>
       <c r="E3" t="n">
         <v>112122.5614740445</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668199</v>
+        <v>47425.32553668204</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945026</v>
+        <v>200285.8640399295</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728554</v>
+        <v>62456.2417753967</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962298</v>
+        <v>43252.5244708111</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277125</v>
+        <v>27767.69404277115</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>167206.1032243104</v>
+        <v>173918.2775005334</v>
       </c>
       <c r="C4" t="n">
-        <v>167206.1032243104</v>
+        <v>173918.2775005334</v>
       </c>
       <c r="D4" t="n">
-        <v>154346.0890704044</v>
+        <v>154346.0890704043</v>
       </c>
       <c r="E4" t="n">
         <v>74084.49552373745</v>
       </c>
       <c r="F4" t="n">
-        <v>74084.49552373745</v>
+        <v>74084.49552373747</v>
       </c>
       <c r="G4" t="n">
         <v>121843.4120153197</v>
@@ -26445,13 +26445,13 @@
         <v>122593.9044797028</v>
       </c>
       <c r="L4" t="n">
-        <v>122338.3305792194</v>
+        <v>122204.9359701647</v>
       </c>
       <c r="M4" t="n">
         <v>121843.4120153197</v>
       </c>
       <c r="N4" t="n">
-        <v>121843.4120153196</v>
+        <v>121843.4120153197</v>
       </c>
       <c r="O4" t="n">
         <v>121843.4120153197</v>
@@ -26467,22 +26467,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001379</v>
+        <v>65170.06753481726</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001379</v>
+        <v>65170.06753481726</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
       </c>
       <c r="E5" t="n">
-        <v>53186.01969984052</v>
+        <v>53186.01969984051</v>
       </c>
       <c r="F5" t="n">
         <v>53186.01969984052</v>
       </c>
       <c r="G5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="H5" t="n">
         <v>58169.76931551966</v>
@@ -26497,7 +26497,7 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.7362917385</v>
+        <v>60823.19813315425</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
@@ -26509,7 +26509,7 @@
         <v>58169.76931551966</v>
       </c>
       <c r="P5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-325929.2636095016</v>
+        <v>-322780.9130227276</v>
       </c>
       <c r="C6" t="n">
-        <v>-143724.3153176458</v>
+        <v>-148922.2559886723</v>
       </c>
       <c r="D6" t="n">
-        <v>-148587.597611521</v>
+        <v>-156323.8868349124</v>
       </c>
       <c r="E6" t="n">
-        <v>-159713.5649854221</v>
+        <v>-159923.2965321116</v>
       </c>
       <c r="F6" t="n">
-        <v>-47591.00351137758</v>
+        <v>-47800.73505806714</v>
       </c>
       <c r="G6" t="n">
-        <v>-137272.4178208429</v>
+        <v>-137272.417820843</v>
       </c>
       <c r="H6" t="n">
-        <v>-89847.09228416086</v>
+        <v>-89847.09228416087</v>
       </c>
       <c r="I6" t="n">
-        <v>-89847.09228416093</v>
+        <v>-89847.0922841609</v>
       </c>
       <c r="J6" t="n">
-        <v>-302889.0098814465</v>
+        <v>-296372.7247268734</v>
       </c>
       <c r="K6" t="n">
-        <v>-96086.8606869439</v>
+        <v>-96086.86068694384</v>
       </c>
       <c r="L6" t="n">
-        <v>-151269.4496215648</v>
+        <v>-155318.2868320372</v>
       </c>
       <c r="M6" t="n">
-        <v>-132047.9217437839</v>
+        <v>-133099.616754972</v>
       </c>
       <c r="N6" t="n">
-        <v>-89847.09228416087</v>
+        <v>-89847.0922841609</v>
       </c>
       <c r="O6" t="n">
         <v>-117614.7863269321</v>
       </c>
       <c r="P6" t="n">
-        <v>-89847.09228416096</v>
+        <v>-89847.0922841609</v>
       </c>
     </row>
   </sheetData>
@@ -26692,13 +26692,13 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="G2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H2" t="n">
         <v>130.3599693155844</v>
@@ -26713,7 +26713,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26725,7 +26725,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="P2" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="3">
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344373</v>
+        <v>518.7905844542313</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344373</v>
+        <v>518.7905844542313</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="E4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="F4" t="n">
         <v>776.4890963014441</v>
@@ -26817,7 +26817,7 @@
         <v>917.0607368443782</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095204</v>
+        <v>844.4391950293144</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085248</v>
+        <v>59.28165692085256</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,25 +26929,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346397</v>
+        <v>34.70961755346396</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660693</v>
+        <v>78.07030221924587</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551348</v>
+        <v>17.58004954287458</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346406</v>
+        <v>34.70961755346394</v>
       </c>
       <c r="P2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344373</v>
+        <v>518.7905844542313</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485777</v>
+        <v>72.62154181506378</v>
       </c>
       <c r="E4" t="n">
-        <v>185.076970032149</v>
+        <v>185.0769700321489</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773715</v>
+        <v>659.3622249971655</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407262</v>
+        <v>117.1268713042786</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085248</v>
+        <v>59.28165692085256</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346397</v>
+        <v>34.70961755346396</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344373</v>
+        <v>518.7905844542313</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485777</v>
+        <v>72.62154181506378</v>
       </c>
       <c r="M4" t="n">
-        <v>185.076970032149</v>
+        <v>185.0769700321489</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>252.1871417395836</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>197.2820362162363</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>136.2843609381078</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27512,10 +27512,10 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>61.51507786325516</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27537,16 +27537,16 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>148.6119948458775</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>19.89673969853598</v>
       </c>
       <c r="G4" t="n">
         <v>166.5715133615489</v>
@@ -27585,10 +27585,10 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>282.5844038405181</v>
@@ -27597,13 +27597,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,7 +27622,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>3.108241690562984</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27676,13 +27676,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>188.1034721635022</v>
       </c>
     </row>
     <row r="6">
@@ -27752,13 +27752,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>185.1777423863153</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>54.01360606785286</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>57.01308734767028</v>
       </c>
       <c r="F7" t="n">
-        <v>144.1400749395019</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
         <v>166.5715133615489</v>
@@ -27792,10 +27792,10 @@
         <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27825,7 +27825,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>282.5844038405181</v>
@@ -27837,10 +27837,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27868,7 +27868,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -27901,7 +27901,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,16 +27910,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>56.51676794469375</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>231.5590449958929</v>
       </c>
     </row>
     <row r="9">
@@ -28059,10 +28059,10 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,7 +28071,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>134.7564242791755</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>231.7395189948467</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28366,7 +28366,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="C17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="D17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="E17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="F17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="G17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="T17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="U17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="V17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="W17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="X17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="Y17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
     </row>
     <row r="18">
@@ -28719,34 +28719,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="C19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="D19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="E19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="F19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="G19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="J19" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="K19" t="n">
-        <v>5.63600263452858</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -28755,7 +28755,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>130.3599693155844</v>
+        <v>35.71049010668685</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -28770,25 +28770,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="T19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="U19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="V19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="W19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="X19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="Y19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
     </row>
     <row r="20">
@@ -28980,31 +28980,31 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>28.01250026485215</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>5.636002634528353</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
       </c>
       <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
         <v>130.3599693155844</v>
@@ -29220,28 +29220,28 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>128.2979821082774</v>
       </c>
       <c r="L25" t="n">
-        <v>5.63600263452858</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
       </c>
       <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29299,10 +29299,10 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L26" t="n">
-        <v>93.99127447431646</v>
+        <v>30.27223765901306</v>
       </c>
       <c r="M26" t="n">
         <v>93.99127447431646</v>
@@ -29314,13 +29314,13 @@
         <v>93.99127447431646</v>
       </c>
       <c r="P26" t="n">
-        <v>86.65052755599589</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="R26" t="n">
-        <v>37.61298457733328</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S26" t="n">
         <v>93.99127447431646</v>
@@ -29460,7 +29460,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431636</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M28" t="n">
         <v>93.99127447431646</v>
@@ -29475,7 +29475,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431634</v>
       </c>
       <c r="R28" t="n">
         <v>93.99127447431646</v>
@@ -29539,16 +29539,16 @@
         <v>93.99127447431646</v>
       </c>
       <c r="L29" t="n">
+        <v>30.27223765901215</v>
+      </c>
+      <c r="M29" t="n">
         <v>93.99127447431646</v>
       </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
       <c r="N29" t="n">
-        <v>86.65052755599572</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -29557,7 +29557,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="R29" t="n">
-        <v>37.61298457733328</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S29" t="n">
         <v>93.99127447431646</v>
@@ -29746,34 +29746,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="J32" t="n">
-        <v>106.3364573000709</v>
+        <v>81.10808140893607</v>
       </c>
       <c r="K32" t="n">
-        <v>86.27291196566534</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -29791,31 +29791,31 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="R32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
     </row>
     <row r="33">
@@ -29904,40 +29904,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="J34" t="n">
-        <v>106.3364573000709</v>
+        <v>106.8683420224764</v>
       </c>
       <c r="K34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="L34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="M34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -29946,34 +29946,34 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>18.71446861254171</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
     </row>
     <row r="35">
@@ -30168,28 +30168,28 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>128.2979821082774</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>128.2979821082779</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30238,7 +30238,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="H38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="I38" t="n">
         <v>130.3599693155844</v>
@@ -30277,7 +30277,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="U38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V38" t="n">
         <v>130.3599693155844</v>
@@ -30405,28 +30405,28 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>128.2979821082774</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>5.636002634529005</v>
-      </c>
-      <c r="R40" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30639,7 +30639,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J43" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30654,13 +30654,13 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>5.636002634527898</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>35.71049010668756</v>
       </c>
       <c r="Q43" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>122.6619794737488</v>
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C44" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D44" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E44" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F44" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G44" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H44" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I44" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T44" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U44" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V44" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W44" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X44" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y44" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="45">
@@ -30852,28 +30852,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C46" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D46" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E46" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F46" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G46" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H46" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I46" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J46" t="n">
         <v>30.07448747215907</v>
@@ -30882,16 +30882,16 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M46" t="n">
-        <v>5.636002634527699</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>5.63600263452858</v>
       </c>
       <c r="O46" t="n">
-        <v>130.3599693155845</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -30903,25 +30903,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S46" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T46" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U46" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V46" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W46" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X46" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y46" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
   </sheetData>
@@ -34705,19 +34705,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>138.4677594163683</v>
+        <v>518.7905844542313</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542313</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>351.7045375065877</v>
+        <v>73.83216285894065</v>
       </c>
       <c r="Q2" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34784,19 +34784,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>161.7050793552054</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>543.6957424344373</v>
+        <v>518.7905844542313</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>200.0149793477104</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,19 +34936,19 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>279.7880289612011</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344373</v>
+        <v>518.7905844542313</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>444.4844453457863</v>
+        <v>322.7942147205912</v>
       </c>
       <c r="P5" t="n">
         <v>351.7045375065877</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>429.4287631435355</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>543.6957424344373</v>
+        <v>518.7905844542313</v>
       </c>
       <c r="N6" t="n">
-        <v>543.6957424344373</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542313</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>118.4507870974727</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
-        <v>498.303324968211</v>
+        <v>303.8905267322986</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
@@ -35185,7 +35185,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>396.1825288359632</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>582.1523102088539</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
-        <v>521.7376591828091</v>
+        <v>233.2518290728942</v>
       </c>
       <c r="P9" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35428,7 +35428,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q11" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110588</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
-        <v>51.00106726098205</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
         <v>488.450591816478</v>
@@ -35498,16 +35498,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>409.7185542589873</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="Q12" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257285</v>
+        <v>41.00382492257284</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
@@ -35586,7 +35586,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488441</v>
+        <v>74.53507640488439</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35650,7 +35650,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L14" t="n">
-        <v>498.3033249682109</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M14" t="n">
         <v>551.5160606510915</v>
@@ -35662,7 +35662,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P14" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065879</v>
       </c>
       <c r="Q14" t="n">
         <v>186.7126870110591</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>51.00106726098205</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
@@ -35735,16 +35735,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O15" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P15" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257285</v>
+        <v>41.00382492257284</v>
       </c>
       <c r="K16" t="n">
         <v>153.7399700815419</v>
@@ -35823,7 +35823,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488441</v>
+        <v>74.53507640488439</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35896,7 +35896,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O17" t="n">
-        <v>444.4844453457863</v>
+        <v>444.4844453457864</v>
       </c>
       <c r="P17" t="n">
         <v>351.7045375065877</v>
@@ -35966,7 +35966,7 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
-        <v>86.27424572268784</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
         <v>634.1127774006881</v>
@@ -35975,10 +35975,10 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>100.2854818434254</v>
       </c>
       <c r="K19" t="n">
-        <v>88.29766032133855</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
         <v>165.78549482202</v>
@@ -36051,7 +36051,7 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
-        <v>315.4000036905432</v>
+        <v>220.7505244816456</v>
       </c>
       <c r="O19" t="n">
         <v>164.3482495370789</v>
@@ -36124,7 +36124,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L20" t="n">
-        <v>498.3033249682109</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M20" t="n">
         <v>551.5160606510915</v>
@@ -36139,7 +36139,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q20" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36200,25 +36200,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>396.904887558667</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O21" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>236.7324157120106</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,31 +36276,31 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K22" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
-        <v>165.78549482202</v>
+        <v>193.7979950868721</v>
       </c>
       <c r="M22" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N22" t="n">
-        <v>190.6760370094871</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
-        <v>251.4470054535426</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>7.697989841835607</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36370,7 +36370,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O23" t="n">
-        <v>444.4844453457864</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P23" t="n">
         <v>351.7045375065877</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>511.1624453563714</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N24" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O24" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P24" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,16 +36516,16 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>82.66165768680997</v>
+        <v>210.9596397950874</v>
       </c>
       <c r="L25" t="n">
-        <v>171.4214974565486</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M25" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
-        <v>315.4000036905432</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O25" t="n">
         <v>164.3482495370789</v>
@@ -36537,7 +36537,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>7.697989841835607</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36595,10 +36595,10 @@
         <v>146.110881726089</v>
       </c>
       <c r="K26" t="n">
-        <v>362.6084404317796</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L26" t="n">
-        <v>592.2945994425274</v>
+        <v>528.575562627224</v>
       </c>
       <c r="M26" t="n">
         <v>645.507335125408</v>
@@ -36610,13 +36610,13 @@
         <v>538.4757198201028</v>
       </c>
       <c r="P26" t="n">
-        <v>438.3550650625836</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q26" t="n">
         <v>280.7039614853756</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
-        <v>35.05004611020328</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L27" t="n">
         <v>488.450591816478</v>
@@ -36686,7 +36686,7 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36756,7 +36756,7 @@
         <v>176.6529321611264</v>
       </c>
       <c r="L28" t="n">
-        <v>259.7767692963363</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M28" t="n">
         <v>282.1645859271084</v>
@@ -36771,7 +36771,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446882</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,16 +36835,16 @@
         <v>456.5997149060961</v>
       </c>
       <c r="L29" t="n">
-        <v>592.2945994425274</v>
+        <v>528.5755626272231</v>
       </c>
       <c r="M29" t="n">
-        <v>551.5160606510915</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
-        <v>619.7932383009069</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O29" t="n">
-        <v>538.4757198201028</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P29" t="n">
         <v>351.7045375065877</v>
@@ -36853,7 +36853,7 @@
         <v>280.7039614853756</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
         <v>634.1127774006881</v>
@@ -36923,13 +36923,13 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O30" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>409.7185542589873</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="Q30" t="n">
-        <v>113.7820836676939</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37066,10 +37066,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>252.4473390261599</v>
+        <v>227.2189631350251</v>
       </c>
       <c r="K32" t="n">
-        <v>448.881352397445</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
         <v>498.303324968211</v>
@@ -37087,10 +37087,10 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>293.04914431113</v>
+        <v>299.4926067837689</v>
       </c>
       <c r="R32" t="n">
-        <v>68.72347272273763</v>
+        <v>75.1669351953765</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,13 +37145,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
         <v>634.1127774006881</v>
@@ -37160,13 +37160,13 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O33" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890192</v>
       </c>
       <c r="P33" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>113.7820836676943</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,16 +37224,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.26196982791183</v>
+        <v>76.79385455031735</v>
       </c>
       <c r="K34" t="n">
-        <v>188.9981149868809</v>
+        <v>195.4415774595197</v>
       </c>
       <c r="L34" t="n">
-        <v>272.1219521220909</v>
+        <v>278.5654145947298</v>
       </c>
       <c r="M34" t="n">
-        <v>294.5097687528628</v>
+        <v>300.9532312255017</v>
       </c>
       <c r="N34" t="n">
         <v>185.0400343749588</v>
@@ -37242,10 +37242,10 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P34" t="n">
-        <v>139.8015047504999</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.7932213102234</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37464,10 +37464,10 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
-        <v>165.78549482202</v>
+        <v>294.0834769302974</v>
       </c>
       <c r="M37" t="n">
         <v>188.1733114527919</v>
@@ -37485,7 +37485,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>5.636002634529095</v>
+        <v>7.697989841835607</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37634,13 +37634,13 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>119.5613130890187</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,7 +37701,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L40" t="n">
         <v>165.78549482202</v>
@@ -37710,7 +37710,7 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N40" t="n">
-        <v>185.0400343749588</v>
+        <v>313.3380164832362</v>
       </c>
       <c r="O40" t="n">
         <v>164.3482495370789</v>
@@ -37719,10 +37719,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
-        <v>9.092766644681488</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>7.697989841835607</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37789,7 +37789,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N41" t="n">
-        <v>533.1427107449111</v>
+        <v>533.1427107449113</v>
       </c>
       <c r="O41" t="n">
         <v>444.4844453457863</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>488.450591816478</v>
@@ -37871,13 +37871,13 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O42" t="n">
-        <v>233.8188708867233</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>32.81159323632111</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K43" t="n">
         <v>82.66165768680997</v>
@@ -37950,13 +37950,13 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O43" t="n">
-        <v>169.9842521716068</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P43" t="n">
-        <v>121.0870361379582</v>
+        <v>156.7975262446457</v>
       </c>
       <c r="Q43" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>488.450591816478</v>
@@ -38108,13 +38108,13 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O45" t="n">
-        <v>119.5613130890187</v>
+        <v>205.7977317832975</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38178,16 +38178,16 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L46" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376044</v>
       </c>
       <c r="M46" t="n">
-        <v>193.8093140873196</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N46" t="n">
-        <v>185.0400343749588</v>
+        <v>190.6760370094874</v>
       </c>
       <c r="O46" t="n">
-        <v>294.7082188526633</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P46" t="n">
         <v>121.0870361379582</v>
